--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView windowWidth="21600" windowHeight="9555" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="2311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="2314">
   <si>
     <t>English</t>
   </si>
@@ -6108,6 +6108,15 @@
   </si>
   <si>
     <t>特别感谢 {0}</t>
+  </si>
+  <si>
+    <t>usedTimesText</t>
+  </si>
+  <si>
+    <t>Used {0} times</t>
+  </si>
+  <si>
+    <t>截至今日,此模组已经被使用{0}次了~</t>
   </si>
   <si>
     <t>engineerRepair</t>
@@ -8191,10 +8200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK884"/>
+  <dimension ref="A1:AK885"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="E868" workbookViewId="0">
+      <selection activeCell="O883" sqref="O883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="14.25"/>
@@ -16863,6 +16872,17 @@
       </c>
       <c r="O884" s="2" t="s">
         <v>2013</v>
+      </c>
+    </row>
+    <row r="885" spans="1:15">
+      <c r="A885" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="O885" s="2" t="s">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -16956,321 +16976,321 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>537</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -17278,153 +17298,153 @@
         <v>678</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
     </row>
   </sheetData>
@@ -17504,10 +17524,10 @@
     </row>
     <row r="2" customFormat="1" ht="28.5" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -17522,17 +17542,17 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="5" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" ht="57" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -17547,17 +17567,17 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="5" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" ht="42.75" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -17572,17 +17592,17 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="5" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" ht="71.25" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -17597,17 +17617,17 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="5" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" ht="42.75" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -17622,17 +17642,17 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="5" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" ht="57" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -17647,17 +17667,17 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -17672,7 +17692,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -17760,10 +17780,10 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -17778,7 +17798,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -17794,10 +17814,10 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -17812,7 +17832,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -17828,10 +17848,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -17846,7 +17866,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -17862,10 +17882,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -17880,7 +17900,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -17896,10 +17916,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -17914,7 +17934,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -17930,10 +17950,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -17948,7 +17968,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -17964,10 +17984,10 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A8" s="1" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -17982,7 +18002,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -17998,10 +18018,10 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A9" s="1" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -18016,7 +18036,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -18032,10 +18052,10 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A10" s="1" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -18050,7 +18070,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -18066,10 +18086,10 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A11" s="1" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -18084,7 +18104,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -18100,10 +18120,10 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A12" s="1" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -18118,7 +18138,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -18134,10 +18154,10 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -18152,7 +18172,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -18168,10 +18188,10 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -18186,7 +18206,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -18202,10 +18222,10 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A15" s="1" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -18220,7 +18240,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -18236,10 +18256,10 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A16" s="1" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -18254,7 +18274,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -18270,10 +18290,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A17" s="1" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -18288,7 +18308,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -18304,10 +18324,10 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A18" s="1" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -18322,7 +18342,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -18338,10 +18358,10 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A19" s="1" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -18356,7 +18376,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -18372,10 +18392,10 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A20" s="1" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -18390,7 +18410,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -18406,10 +18426,10 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -18424,7 +18444,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -18440,10 +18460,10 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -18458,7 +18478,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -18474,10 +18494,10 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -18492,7 +18512,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -18508,10 +18528,10 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A24" s="1" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -18526,7 +18546,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -18542,10 +18562,10 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A25" s="1" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -18560,7 +18580,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -18586,8 +18606,8 @@
   <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25"/>
@@ -18651,131 +18671,131 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>33</v>
@@ -18783,10 +18803,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>36</v>
@@ -18794,10 +18814,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>39</v>
@@ -18805,13 +18825,13 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
     </row>
   </sheetData>
@@ -18904,135 +18924,135 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555" activeTab="4"/>
+    <workbookView windowWidth="21600" windowHeight="9555" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="2314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="2332">
   <si>
     <t>English</t>
   </si>
@@ -712,7 +712,7 @@
     <t>janitor</t>
   </si>
   <si>
-    <t>Ianitor</t>
+    <t>Janitor</t>
   </si>
   <si>
     <t>清洁工</t>
@@ -1528,7 +1528,7 @@
     <t>同时生成正义与邪恶赌怪的概率</t>
   </si>
   <si>
-    <t>guesserCantGuessSnitchIfTaksDone</t>
+    <t>guesserCantGuessSnitchIfTasksDone</t>
   </si>
   <si>
     <t>Guesser Can't Guess Snitch When Tasks Completed</t>
@@ -4875,7 +4875,7 @@
     <t>chatChangeColorYes</t>
   </si>
   <si>
-    <t>Changed color succesfully</t>
+    <t>Changed color successfully</t>
   </si>
   <si>
     <t>成功改变颜色</t>
@@ -5019,7 +5019,7 @@
     <t>crewmatesByTask</t>
   </si>
   <si>
-    <t>Crew Wins - Taskwin</t>
+    <t>Crew Wins - Task Win</t>
   </si>
   <si>
     <t>船员阵营胜利 - 任务获胜</t>
@@ -6117,6 +6117,42 @@
   </si>
   <si>
     <t>截至今日,此模组已经被使用{0}次了~</t>
+  </si>
+  <si>
+    <t>vanHNSText</t>
+  </si>
+  <si>
+    <t>Van. HideNSeek</t>
+  </si>
+  <si>
+    <t>原版.捉迷藏</t>
+  </si>
+  <si>
+    <t>vanClassicText</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>经典</t>
+  </si>
+  <si>
+    <t>titleIpText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ip: </t>
+  </si>
+  <si>
+    <t>Ip：</t>
+  </si>
+  <si>
+    <t>titlePortText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port: </t>
+  </si>
+  <si>
+    <t>端口：</t>
   </si>
   <si>
     <t>engineerRepair</t>
@@ -6925,6 +6961,24 @@
     <t>你</t>
   </si>
   <si>
+    <t>waitingText</t>
+  </si>
+  <si>
+    <t>Waiting...</t>
+  </si>
+  <si>
+    <t>等待选择...</t>
+  </si>
+  <si>
+    <t>roleDraftUnknownText</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
     <t>moreOptionsText</t>
   </si>
   <si>
@@ -7027,7 +7081,7 @@
     <t>enbaleDarkMode</t>
   </si>
   <si>
-    <t>Enable Drak Mode</t>
+    <t>Enable Dark Mode</t>
   </si>
   <si>
     <t>启用深色模式</t>
@@ -8200,10 +8254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK885"/>
+  <dimension ref="A1:AK890"/>
   <sheetViews>
-    <sheetView topLeftCell="E868" workbookViewId="0">
-      <selection activeCell="O883" sqref="O883"/>
+    <sheetView topLeftCell="A702" workbookViewId="0">
+      <selection activeCell="B726" sqref="B726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="14.25"/>
@@ -16883,6 +16937,74 @@
       </c>
       <c r="O885" s="2" t="s">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="886" spans="1:15">
+      <c r="A886" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="O886" s="2" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="887" spans="1:15">
+      <c r="A887" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="O887" s="2" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="889" spans="1:15">
+      <c r="A889" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C889" s="1"/>
+      <c r="D889" s="1"/>
+      <c r="E889" s="1"/>
+      <c r="F889" s="1"/>
+      <c r="G889" s="1"/>
+      <c r="H889" s="1"/>
+      <c r="I889" s="1"/>
+      <c r="J889" s="1"/>
+      <c r="K889" s="1"/>
+      <c r="L889" s="1"/>
+      <c r="M889" s="1"/>
+      <c r="N889" s="1"/>
+      <c r="O889" s="1" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="890" spans="1:15">
+      <c r="A890" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C890" s="1"/>
+      <c r="D890" s="1"/>
+      <c r="E890" s="1"/>
+      <c r="F890" s="1"/>
+      <c r="G890" s="1"/>
+      <c r="H890" s="1"/>
+      <c r="I890" s="1"/>
+      <c r="J890" s="1"/>
+      <c r="K890" s="1"/>
+      <c r="L890" s="1"/>
+      <c r="M890" s="1"/>
+      <c r="N890" s="1"/>
+      <c r="O890" s="1" t="s">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
@@ -16976,321 +17098,321 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>2017</v>
+        <v>2029</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2019</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>2020</v>
+        <v>2032</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2021</v>
+        <v>2033</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2022</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>2023</v>
+        <v>2035</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2024</v>
+        <v>2036</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2025</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>2026</v>
+        <v>2038</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2027</v>
+        <v>2039</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2028</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>2029</v>
+        <v>2041</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2030</v>
+        <v>2042</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2031</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>2032</v>
+        <v>2044</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2033</v>
+        <v>2045</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2034</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>2035</v>
+        <v>2047</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2036</v>
+        <v>2048</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2037</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>2038</v>
+        <v>2050</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2039</v>
+        <v>2051</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2040</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>2041</v>
+        <v>2053</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2042</v>
+        <v>2054</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2043</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>2044</v>
+        <v>2056</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2045</v>
+        <v>2057</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2046</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>2047</v>
+        <v>2059</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2048</v>
+        <v>2060</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2049</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>2050</v>
+        <v>2062</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2051</v>
+        <v>2063</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2052</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>2053</v>
+        <v>2065</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2054</v>
+        <v>2066</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2055</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>2056</v>
+        <v>2068</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2057</v>
+        <v>2069</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2058</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>2059</v>
+        <v>2071</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2060</v>
+        <v>2072</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2061</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>2062</v>
+        <v>2074</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>537</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>2063</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>2064</v>
+        <v>2076</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2065</v>
+        <v>2077</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2066</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>2067</v>
+        <v>2079</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2068</v>
+        <v>2080</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>2069</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>2070</v>
+        <v>2082</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2071</v>
+        <v>2083</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>2072</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>2073</v>
+        <v>2085</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2074</v>
+        <v>2086</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>2075</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>2076</v>
+        <v>2088</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2077</v>
+        <v>2089</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>2078</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>2079</v>
+        <v>2091</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2080</v>
+        <v>2092</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>2081</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>2082</v>
+        <v>2094</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2083</v>
+        <v>2095</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>2084</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>2085</v>
+        <v>2097</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2086</v>
+        <v>2098</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>2087</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>2088</v>
+        <v>2100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2089</v>
+        <v>2101</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>2090</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>2091</v>
+        <v>2103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2092</v>
+        <v>2104</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>2093</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>2094</v>
+        <v>2106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2095</v>
+        <v>2107</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>2096</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>2097</v>
+        <v>2109</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2098</v>
+        <v>2110</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>2099</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>2100</v>
+        <v>2112</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2101</v>
+        <v>2113</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>2102</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -17298,153 +17420,153 @@
         <v>678</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2103</v>
+        <v>2115</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>2104</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>2105</v>
+        <v>2117</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2106</v>
+        <v>2118</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>2107</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>2108</v>
+        <v>2120</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2109</v>
+        <v>2121</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>2110</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>2111</v>
+        <v>2123</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2112</v>
+        <v>2124</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>2113</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>2114</v>
+        <v>2126</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2115</v>
+        <v>2127</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>2116</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>2117</v>
+        <v>2129</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2118</v>
+        <v>2130</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>2119</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>2120</v>
+        <v>2132</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2121</v>
+        <v>2133</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>2122</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>2123</v>
+        <v>2135</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2065</v>
+        <v>2077</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>2124</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>2125</v>
+        <v>2137</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2126</v>
+        <v>2138</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>2127</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>2128</v>
+        <v>2140</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2129</v>
+        <v>2141</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>2130</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>2131</v>
+        <v>2143</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2132</v>
+        <v>2144</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>2133</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>2134</v>
+        <v>2146</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2135</v>
+        <v>2147</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>2136</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>2137</v>
+        <v>2149</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2138</v>
+        <v>2150</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>2139</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>2140</v>
+        <v>2152</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2141</v>
+        <v>2153</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>2142</v>
+        <v>2154</v>
       </c>
     </row>
   </sheetData>
@@ -17524,10 +17646,10 @@
     </row>
     <row r="2" customFormat="1" ht="28.5" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>2143</v>
+        <v>2155</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2144</v>
+        <v>2156</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -17542,17 +17664,17 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="5" t="s">
-        <v>2145</v>
+        <v>2157</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" ht="57" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>2146</v>
+        <v>2158</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2147</v>
+        <v>2159</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -17567,17 +17689,17 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="5" t="s">
-        <v>2148</v>
+        <v>2160</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" ht="42.75" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>2149</v>
+        <v>2161</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2150</v>
+        <v>2162</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -17592,17 +17714,17 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="5" t="s">
-        <v>2151</v>
+        <v>2163</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" ht="71.25" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>2152</v>
+        <v>2164</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2153</v>
+        <v>2165</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -17617,17 +17739,17 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="5" t="s">
-        <v>2154</v>
+        <v>2166</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" ht="42.75" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>2155</v>
+        <v>2167</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2156</v>
+        <v>2168</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -17642,17 +17764,17 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="5" t="s">
-        <v>2157</v>
+        <v>2169</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" ht="57" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>2158</v>
+        <v>2170</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2159</v>
+        <v>2171</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -17667,17 +17789,17 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5" t="s">
-        <v>2160</v>
+        <v>2172</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>2161</v>
+        <v>2173</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2162</v>
+        <v>2174</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -17692,7 +17814,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>2163</v>
+        <v>2175</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -17710,7 +17832,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -17780,10 +17902,10 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>2164</v>
+        <v>2176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2165</v>
+        <v>2177</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -17798,7 +17920,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>2166</v>
+        <v>2178</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -17814,10 +17936,10 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>2167</v>
+        <v>2179</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2168</v>
+        <v>2180</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -17832,7 +17954,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>2169</v>
+        <v>2181</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -17848,10 +17970,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>2170</v>
+        <v>2182</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2171</v>
+        <v>2183</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -17866,7 +17988,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>2172</v>
+        <v>2184</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -17882,10 +18004,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>2173</v>
+        <v>2185</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2174</v>
+        <v>2186</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -17900,7 +18022,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>2175</v>
+        <v>2187</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -17916,10 +18038,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>2176</v>
+        <v>2188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2177</v>
+        <v>2189</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -17934,7 +18056,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>2178</v>
+        <v>2190</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -17950,10 +18072,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>2179</v>
+        <v>2191</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2180</v>
+        <v>2192</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -17968,7 +18090,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>2181</v>
+        <v>2193</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -17984,10 +18106,10 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A8" s="1" t="s">
-        <v>2182</v>
+        <v>2194</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2183</v>
+        <v>2195</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -18002,7 +18124,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>2184</v>
+        <v>2196</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -18018,10 +18140,10 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A9" s="1" t="s">
-        <v>2185</v>
+        <v>2197</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2186</v>
+        <v>2198</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -18036,7 +18158,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>2187</v>
+        <v>2199</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -18052,10 +18174,10 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A10" s="1" t="s">
-        <v>2188</v>
+        <v>2200</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2189</v>
+        <v>2201</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -18070,7 +18192,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>2190</v>
+        <v>2202</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -18086,10 +18208,10 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A11" s="1" t="s">
-        <v>2191</v>
+        <v>2203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2192</v>
+        <v>2204</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -18104,7 +18226,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>2193</v>
+        <v>2205</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -18120,10 +18242,10 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A12" s="1" t="s">
-        <v>2194</v>
+        <v>2206</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2195</v>
+        <v>2207</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -18138,7 +18260,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>2196</v>
+        <v>2208</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -18154,10 +18276,10 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>2197</v>
+        <v>2209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2198</v>
+        <v>2210</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -18172,7 +18294,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>2199</v>
+        <v>2211</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -18188,10 +18310,10 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>2200</v>
+        <v>2212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2201</v>
+        <v>2213</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -18206,7 +18328,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>2202</v>
+        <v>2214</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -18222,10 +18344,10 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A15" s="1" t="s">
-        <v>2203</v>
+        <v>2215</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2204</v>
+        <v>2216</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -18240,7 +18362,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>2205</v>
+        <v>2217</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -18256,10 +18378,10 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A16" s="1" t="s">
-        <v>2206</v>
+        <v>2218</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2207</v>
+        <v>2219</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -18274,7 +18396,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>2208</v>
+        <v>2220</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -18290,10 +18412,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A17" s="1" t="s">
-        <v>2209</v>
+        <v>2221</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2210</v>
+        <v>2222</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -18308,7 +18430,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>2211</v>
+        <v>2223</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -18324,10 +18446,10 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A18" s="1" t="s">
-        <v>2212</v>
+        <v>2224</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2213</v>
+        <v>2225</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -18342,7 +18464,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>2214</v>
+        <v>2226</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -18358,10 +18480,10 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A19" s="1" t="s">
-        <v>2215</v>
+        <v>2227</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2216</v>
+        <v>2228</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -18376,7 +18498,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>2217</v>
+        <v>2229</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -18392,10 +18514,10 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A20" s="1" t="s">
-        <v>2218</v>
+        <v>2230</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2219</v>
+        <v>2231</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -18410,7 +18532,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>2220</v>
+        <v>2232</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -18426,10 +18548,10 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>2221</v>
+        <v>2233</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2222</v>
+        <v>2234</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -18444,7 +18566,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>2223</v>
+        <v>2235</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -18460,10 +18582,10 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>2224</v>
+        <v>2236</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2225</v>
+        <v>2237</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -18478,7 +18600,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>2226</v>
+        <v>2238</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -18494,10 +18616,10 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2228</v>
+        <v>2240</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -18512,7 +18634,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>2229</v>
+        <v>2241</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -18528,10 +18650,10 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A24" s="1" t="s">
-        <v>2230</v>
+        <v>2242</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2231</v>
+        <v>2243</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -18546,7 +18668,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>2232</v>
+        <v>2244</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -18562,10 +18684,10 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A25" s="1" t="s">
-        <v>2233</v>
+        <v>2245</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2234</v>
+        <v>2246</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -18580,7 +18702,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>2235</v>
+        <v>2247</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -18604,10 +18726,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25"/>
@@ -18671,131 +18793,131 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>2236</v>
+        <v>2248</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2237</v>
+        <v>2249</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2238</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>2239</v>
+        <v>2251</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2240</v>
+        <v>2252</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2241</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>2242</v>
+        <v>2254</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2243</v>
+        <v>2255</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2244</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>2245</v>
+        <v>2257</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2246</v>
+        <v>2258</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2247</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>2248</v>
+        <v>2260</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2249</v>
+        <v>2261</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2250</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>2251</v>
+        <v>2263</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2252</v>
+        <v>2264</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2253</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>2254</v>
+        <v>2266</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2255</v>
+        <v>2267</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>2256</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>2257</v>
+        <v>2269</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2258</v>
+        <v>2270</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>2259</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>2260</v>
+        <v>2272</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2261</v>
+        <v>2273</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2262</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2265</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>2266</v>
+        <v>2278</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2267</v>
+        <v>2279</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2268</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>2269</v>
+        <v>2281</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2270</v>
+        <v>2282</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>33</v>
@@ -18803,10 +18925,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>2271</v>
+        <v>2283</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2272</v>
+        <v>2284</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>36</v>
@@ -18814,10 +18936,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>2273</v>
+        <v>2285</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2274</v>
+        <v>2286</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>39</v>
@@ -18825,13 +18947,35 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>2275</v>
+        <v>2287</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2276</v>
+        <v>2288</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2277</v>
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>2295</v>
       </c>
     </row>
   </sheetData>
@@ -18846,8 +18990,8 @@
   <sheetPr/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25"/>
@@ -18924,135 +19068,135 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>2278</v>
+        <v>2296</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2279</v>
+        <v>2297</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2280</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>2281</v>
+        <v>2299</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2282</v>
+        <v>2300</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2283</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>2284</v>
+        <v>2302</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2285</v>
+        <v>2303</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2286</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>2287</v>
+        <v>2305</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2288</v>
+        <v>2306</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2289</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>2290</v>
+        <v>2308</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2291</v>
+        <v>2309</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2292</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>2293</v>
+        <v>2311</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2294</v>
+        <v>2312</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2295</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>2296</v>
+        <v>2314</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2297</v>
+        <v>2315</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2298</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>2299</v>
+        <v>2317</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2300</v>
+        <v>2318</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2301</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>2302</v>
+        <v>2320</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2303</v>
+        <v>2321</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2304</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>2305</v>
+        <v>2323</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2306</v>
+        <v>2324</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2307</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>2308</v>
+        <v>2326</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2309</v>
+        <v>2327</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2310</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>2311</v>
+        <v>2329</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2312</v>
+        <v>2330</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2313</v>
+        <v>2331</v>
       </c>
     </row>
   </sheetData>
